--- a/fig2_data1.xlsx
+++ b/fig2_data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DATA\test\Supplementary Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25595C00-8D22-458A-98A4-8BA1056D71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5702BF0-5563-4201-A20F-9DBAA6611B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{E2F5F090-D8B7-4259-B326-00F30F82A061}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E2F5F090-D8B7-4259-B326-00F30F82A061}"/>
   </bookViews>
   <sheets>
     <sheet name="PlPx" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="140">
   <si>
     <t>SiO2</t>
   </si>
@@ -567,6 +567,18 @@
   </si>
   <si>
     <t>Gross et al. (2020)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mg#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* The yellow highlighted terms are the Apollo-15 Fe-norites with a bulk-rock Mg# close to Arguin 002.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,12 +617,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -627,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -653,6 +671,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -969,11 +996,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB82AAF-1927-46AF-9075-13FED6F05C52}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1844,25 +1869,25 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="11">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="11">
         <v>93</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="11">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="11">
         <v>67</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="11">
         <v>9</v>
       </c>
       <c r="H45" t="s">
@@ -1870,25 +1895,25 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="11">
         <v>3.3799999999999997E-2</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="11">
         <v>93</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="11">
         <v>1</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="11">
         <v>64</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="11">
         <v>2</v>
       </c>
       <c r="H46" t="s">
@@ -1896,25 +1921,25 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="11">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="11">
         <v>91</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="11">
         <v>1</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="11">
         <v>61.5</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="11">
         <v>1.5</v>
       </c>
       <c r="H47" t="s">
@@ -2089,6 +2114,11 @@
       </c>
       <c r="H57" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2105,9 +2135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C03C65B-6CDB-4568-A461-D6426CC7A1FA}">
   <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2155,6 +2185,9 @@
       <c r="M1" t="s">
         <v>9</v>
       </c>
+      <c r="N1" t="s">
+        <v>137</v>
+      </c>
       <c r="O1" t="s">
         <v>10</v>
       </c>
@@ -2232,6 +2265,10 @@
       <c r="L2">
         <v>0.08</v>
       </c>
+      <c r="N2" s="2">
+        <f>I2/40.3/(I2/40.3+G2/71.84)*100</f>
+        <v>79.297121229371399</v>
+      </c>
       <c r="O2">
         <v>16</v>
       </c>
@@ -2291,6 +2328,10 @@
       <c r="L3" s="2">
         <v>0.22767175810712997</v>
       </c>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N48" si="0">I3/40.3/(I3/40.3+G3/71.84)*100</f>
+        <v>73.280541291854988</v>
+      </c>
       <c r="O3">
         <v>15.6</v>
       </c>
@@ -2359,6 +2400,10 @@
       <c r="L4" s="2">
         <v>6.1435236314622374E-2</v>
       </c>
+      <c r="N4" s="2">
+        <f t="shared" si="0"/>
+        <v>77.511764453637127</v>
+      </c>
       <c r="O4">
         <v>3.23</v>
       </c>
@@ -2427,6 +2472,10 @@
       <c r="L5" s="2">
         <v>3.3729149349204443E-2</v>
       </c>
+      <c r="N5" s="2">
+        <f t="shared" si="0"/>
+        <v>83.720775990735206</v>
+      </c>
       <c r="O5">
         <v>2.96</v>
       </c>
@@ -2489,6 +2538,10 @@
       <c r="L6">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="N6" s="2">
+        <f t="shared" si="0"/>
+        <v>81.983275058000814</v>
+      </c>
       <c r="O6">
         <v>4.0199999999999996</v>
       </c>
@@ -2554,6 +2607,10 @@
       <c r="L7">
         <v>0.06</v>
       </c>
+      <c r="N7" s="2">
+        <f t="shared" si="0"/>
+        <v>82.22648784647113</v>
+      </c>
       <c r="O7">
         <v>5.1100000000000003</v>
       </c>
@@ -2622,6 +2679,10 @@
       <c r="L8">
         <v>0.08</v>
       </c>
+      <c r="N8" s="2">
+        <f t="shared" si="0"/>
+        <v>81.001633944045437</v>
+      </c>
       <c r="O8">
         <v>4.8</v>
       </c>
@@ -2684,6 +2745,10 @@
       <c r="L9" s="2">
         <v>8.7936710803283011E-2</v>
       </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>78.61673422687447</v>
+      </c>
       <c r="O9">
         <v>5.5</v>
       </c>
@@ -2743,6 +2808,10 @@
       <c r="L10">
         <v>0.18</v>
       </c>
+      <c r="N10" s="2">
+        <f t="shared" si="0"/>
+        <v>68.30623768644918</v>
+      </c>
       <c r="O10">
         <v>7.2</v>
       </c>
@@ -2802,6 +2871,10 @@
       <c r="L11">
         <v>0.16</v>
       </c>
+      <c r="N11" s="2">
+        <f t="shared" si="0"/>
+        <v>70.74124169503115</v>
+      </c>
       <c r="O11">
         <v>8.3000000000000007</v>
       </c>
@@ -2867,6 +2940,10 @@
       <c r="M12">
         <v>0.11</v>
       </c>
+      <c r="N12" s="2">
+        <f t="shared" si="0"/>
+        <v>68.977046189702349</v>
+      </c>
       <c r="P12">
         <v>27.2</v>
       </c>
@@ -2932,6 +3009,10 @@
       <c r="M13">
         <v>0.04</v>
       </c>
+      <c r="N13" s="2">
+        <f t="shared" si="0"/>
+        <v>80.5871760419721</v>
+      </c>
       <c r="P13">
         <v>9.16</v>
       </c>
@@ -2994,6 +3075,10 @@
       <c r="M14">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="N14" s="2">
+        <f t="shared" si="0"/>
+        <v>77.778422781890129</v>
+      </c>
       <c r="P14">
         <v>23.2</v>
       </c>
@@ -3056,6 +3141,10 @@
       <c r="M15">
         <v>0.08</v>
       </c>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>78.026988023368588</v>
+      </c>
       <c r="P15">
         <v>20.5</v>
       </c>
@@ -3115,6 +3204,10 @@
       <c r="L16">
         <v>5.5E-2</v>
       </c>
+      <c r="N16" s="2">
+        <f t="shared" si="0"/>
+        <v>79.982858655328741</v>
+      </c>
       <c r="O16">
         <v>3.3</v>
       </c>
@@ -3183,6 +3276,10 @@
       <c r="M17">
         <v>0.08</v>
       </c>
+      <c r="N17" s="2">
+        <f t="shared" si="0"/>
+        <v>79.684442290959396</v>
+      </c>
       <c r="O17">
         <v>4.47</v>
       </c>
@@ -3245,6 +3342,10 @@
       <c r="M18">
         <v>0.08</v>
       </c>
+      <c r="N18" s="2">
+        <f t="shared" si="0"/>
+        <v>79.684442290959396</v>
+      </c>
       <c r="O18">
         <v>4.47</v>
       </c>
@@ -3304,6 +3405,10 @@
       <c r="L19" s="2">
         <v>8.4322873373011115E-2</v>
       </c>
+      <c r="N19" s="2">
+        <f t="shared" si="0"/>
+        <v>80.139982715278464</v>
+      </c>
       <c r="O19">
         <v>3.3</v>
       </c>
@@ -3366,6 +3471,10 @@
       <c r="L20" s="2">
         <v>4.6979886593534755E-2</v>
       </c>
+      <c r="N20" s="2">
+        <f t="shared" si="0"/>
+        <v>79.638492862058825</v>
+      </c>
       <c r="O20">
         <v>3.4</v>
       </c>
@@ -3428,6 +3537,10 @@
       <c r="L21" s="2">
         <v>7.227674860543809E-2</v>
       </c>
+      <c r="N21" s="2">
+        <f t="shared" si="0"/>
+        <v>78.02785527380621</v>
+      </c>
       <c r="O21">
         <v>9.3000000000000007</v>
       </c>
@@ -3496,6 +3609,10 @@
       <c r="M22">
         <v>0.03</v>
       </c>
+      <c r="N22" s="2">
+        <f t="shared" si="0"/>
+        <v>78.67550935133643</v>
+      </c>
       <c r="O22">
         <v>10.5</v>
       </c>
@@ -3554,6 +3671,10 @@
       </c>
       <c r="M23">
         <v>0.04</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="0"/>
+        <v>80.81298055693938</v>
       </c>
       <c r="O23">
         <v>7.31</v>
@@ -3606,6 +3727,10 @@
       <c r="L24" s="2">
         <v>0.11323357281518634</v>
       </c>
+      <c r="N24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O24">
         <v>25.8</v>
       </c>
@@ -3668,6 +3793,10 @@
       <c r="K25">
         <v>0.34</v>
       </c>
+      <c r="N25" s="2">
+        <f t="shared" si="0"/>
+        <v>73.368657559264207</v>
+      </c>
       <c r="O25">
         <v>9.77</v>
       </c>
@@ -3727,6 +3856,10 @@
       <c r="L26">
         <v>0.08</v>
       </c>
+      <c r="N26" s="2">
+        <f t="shared" si="0"/>
+        <v>74.144904574084109</v>
+      </c>
       <c r="O26">
         <v>3.15</v>
       </c>
@@ -3789,6 +3922,10 @@
       <c r="L27">
         <v>0.19</v>
       </c>
+      <c r="N27" s="2">
+        <f t="shared" si="0"/>
+        <v>72.699536838020435</v>
+      </c>
       <c r="O27">
         <v>12.1</v>
       </c>
@@ -3845,6 +3982,9 @@
       <c r="L28">
         <v>0.15</v>
       </c>
+      <c r="N28" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="O28">
         <v>13.7</v>
       </c>
@@ -3910,6 +4050,10 @@
       <c r="L29">
         <v>0.98</v>
       </c>
+      <c r="N29" s="2">
+        <f t="shared" si="0"/>
+        <v>60.191914203062154</v>
+      </c>
       <c r="O29">
         <v>150</v>
       </c>
@@ -3975,6 +4119,10 @@
       <c r="L30">
         <v>0.75</v>
       </c>
+      <c r="N30" s="2">
+        <f t="shared" si="0"/>
+        <v>57.209598640900417</v>
+      </c>
       <c r="O30">
         <v>105</v>
       </c>
@@ -4040,6 +4188,10 @@
       <c r="L31">
         <v>2.2000000000000002</v>
       </c>
+      <c r="N31" s="2">
+        <f t="shared" si="0"/>
+        <v>67.23564846151811</v>
+      </c>
       <c r="O31">
         <v>470</v>
       </c>
@@ -4102,6 +4254,10 @@
       <c r="L32" s="2">
         <v>0.42763742924884202</v>
       </c>
+      <c r="N32" s="2">
+        <f t="shared" si="0"/>
+        <v>73.142634827363821</v>
+      </c>
       <c r="O32">
         <v>85</v>
       </c>
@@ -4155,6 +4311,10 @@
       <c r="K33">
         <v>0.86</v>
       </c>
+      <c r="N33" s="2">
+        <f t="shared" si="0"/>
+        <v>64.590323384812805</v>
+      </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -4187,6 +4347,10 @@
       <c r="K34">
         <v>0.5</v>
       </c>
+      <c r="N34" s="2">
+        <f t="shared" si="0"/>
+        <v>52.266139528858758</v>
+      </c>
       <c r="O34">
         <v>225</v>
       </c>
@@ -4246,6 +4410,10 @@
       <c r="L35">
         <v>0.35</v>
       </c>
+      <c r="N35" s="2">
+        <f t="shared" si="0"/>
+        <v>47.620434009545299</v>
+      </c>
       <c r="O35">
         <v>101.6</v>
       </c>
@@ -4311,6 +4479,10 @@
       <c r="M36">
         <v>0.53</v>
       </c>
+      <c r="N36" s="2">
+        <f t="shared" si="0"/>
+        <v>87.344701120416246</v>
+      </c>
       <c r="P36">
         <v>226</v>
       </c>
@@ -4370,6 +4542,10 @@
       <c r="L37">
         <v>4.2000000000000003E-2</v>
       </c>
+      <c r="N37" s="2">
+        <f t="shared" si="0"/>
+        <v>74.268824097757999</v>
+      </c>
       <c r="O37">
         <v>2.44</v>
       </c>
@@ -4423,6 +4599,10 @@
       <c r="L38">
         <v>4.3999999999999997E-2</v>
       </c>
+      <c r="N38" s="2">
+        <f t="shared" si="0"/>
+        <v>77.617865161514715</v>
+      </c>
       <c r="O38">
         <v>3.24</v>
       </c>
@@ -4476,6 +4656,10 @@
       <c r="L39">
         <v>3.4000000000000002E-2</v>
       </c>
+      <c r="N39" s="2">
+        <f t="shared" si="0"/>
+        <v>77.75480826469537</v>
+      </c>
       <c r="O39">
         <v>2.25</v>
       </c>
@@ -4499,10 +4683,10 @@
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="11">
         <v>42</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C40">
@@ -4528,6 +4712,10 @@
       </c>
       <c r="L40">
         <v>0.1</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="0"/>
+        <v>65.275585197455854</v>
       </c>
       <c r="O40">
         <v>5.77</v>
@@ -4582,6 +4770,10 @@
       <c r="L41">
         <v>6.6000000000000003E-2</v>
       </c>
+      <c r="N41" s="2">
+        <f t="shared" si="0"/>
+        <v>82.33921913661402</v>
+      </c>
       <c r="O41">
         <v>4.0199999999999996</v>
       </c>
@@ -4635,6 +4827,10 @@
       <c r="L42">
         <v>0.08</v>
       </c>
+      <c r="N42" s="2">
+        <f t="shared" si="0"/>
+        <v>81.457136471794598</v>
+      </c>
       <c r="O42">
         <v>4.8</v>
       </c>
@@ -4688,6 +4884,10 @@
       <c r="L43">
         <v>9.7000000000000003E-2</v>
       </c>
+      <c r="N43" s="2">
+        <f t="shared" si="0"/>
+        <v>78.258704403037726</v>
+      </c>
       <c r="O43">
         <v>7.3</v>
       </c>
@@ -4741,6 +4941,10 @@
       <c r="L44">
         <v>0.06</v>
       </c>
+      <c r="N44" s="2">
+        <f t="shared" si="0"/>
+        <v>79.279478118236014</v>
+      </c>
       <c r="O44">
         <v>4.25</v>
       </c>
@@ -4782,6 +4986,9 @@
       <c r="L45">
         <v>0.16</v>
       </c>
+      <c r="N45" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="O45">
         <v>15.9</v>
       </c>
@@ -4835,6 +5042,10 @@
       <c r="L46">
         <v>0.05</v>
       </c>
+      <c r="N46" s="2">
+        <f t="shared" si="0"/>
+        <v>72.096753866093664</v>
+      </c>
       <c r="O46">
         <v>21.4</v>
       </c>
@@ -4858,10 +5069,10 @@
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="11">
         <v>41</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C47">
@@ -4888,6 +5099,10 @@
       <c r="L47">
         <v>0.10199999999999999</v>
       </c>
+      <c r="N47" s="10">
+        <f t="shared" si="0"/>
+        <v>62.697224705253859</v>
+      </c>
       <c r="O47">
         <v>4.49</v>
       </c>
@@ -4911,10 +5126,10 @@
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="11">
         <v>43</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C48">
@@ -4941,6 +5156,10 @@
       <c r="L48">
         <v>0.12</v>
       </c>
+      <c r="N48" s="10">
+        <f t="shared" si="0"/>
+        <v>61.840406301110441</v>
+      </c>
       <c r="O48">
         <v>4.46</v>
       </c>
@@ -4963,10 +5182,13 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
       <c r="B50" s="5"/>
       <c r="M50" t="s">
         <v>130</v>
@@ -5014,7 +5236,7 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="M51" t="s">
         <v>131</v>
@@ -5062,7 +5284,7 @@
         <v>0.46339999999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="M52" t="s">
         <v>132</v>
@@ -5110,7 +5332,7 @@
         <v>0.38633146396563711</v>
       </c>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M54" t="s">
         <v>33</v>
       </c>
@@ -5126,35 +5348,35 @@
         <v>46</v>
       </c>
       <c r="R54">
-        <f>MAX(R2:R21)</f>
+        <f t="shared" ref="R54:Y54" si="1">MAX(R2:R21)</f>
         <v>21.1</v>
       </c>
       <c r="S54">
-        <f>MAX(S2:S21)</f>
+        <f t="shared" si="1"/>
         <v>7.6</v>
       </c>
       <c r="T54">
-        <f>MAX(T2:T21)</f>
+        <f t="shared" si="1"/>
         <v>1.96</v>
       </c>
       <c r="U54">
-        <f>MAX(U2:U21)</f>
+        <f t="shared" si="1"/>
         <v>6.64</v>
       </c>
       <c r="V54">
-        <f>MAX(V2:V21)</f>
+        <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
       <c r="W54">
-        <f>MAX(W2:W21)</f>
+        <f t="shared" si="1"/>
         <v>9.9</v>
       </c>
       <c r="X54">
-        <f>MAX(X2:X21)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="Y54">
-        <f>MAX(Y2:Y21)</f>
+        <f t="shared" si="1"/>
         <v>4.51</v>
       </c>
       <c r="AA54">
@@ -5166,7 +5388,7 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N55" t="s">
         <v>101</v>
       </c>
@@ -5179,35 +5401,35 @@
         <v>7.8</v>
       </c>
       <c r="R55">
-        <f>MIN(R2:R21)</f>
+        <f t="shared" ref="R55:Y55" si="2">MIN(R2:R21)</f>
         <v>2.8</v>
       </c>
       <c r="S55">
-        <f>MIN(S2:S21)</f>
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
       <c r="T55">
-        <f>MIN(T2:T21)</f>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="U55">
-        <f>MIN(U2:U21)</f>
+        <f t="shared" si="2"/>
         <v>2.0499999999999998</v>
       </c>
       <c r="V55">
-        <f>MIN(V2:V21)</f>
+        <f t="shared" si="2"/>
         <v>0.21299999999999999</v>
       </c>
       <c r="W55">
-        <f>MIN(W2:W21)</f>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="X55">
-        <f>MIN(X2:X21)</f>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="Y55">
-        <f>MIN(Y2:Y21)</f>
+        <f t="shared" si="2"/>
         <v>1.47</v>
       </c>
       <c r="AA55">
@@ -5219,7 +5441,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N56" t="s">
         <v>102</v>
       </c>
@@ -5233,35 +5455,35 @@
       </c>
       <c r="Q56" s="7"/>
       <c r="R56" s="7">
-        <f>AVERAGE(R2:R21)</f>
+        <f t="shared" ref="R56:Y56" si="3">AVERAGE(R2:R21)</f>
         <v>8.7811764705882354</v>
       </c>
       <c r="S56" s="7">
-        <f>AVERAGE(S2:S21)</f>
+        <f t="shared" si="3"/>
         <v>2.5660000000000003</v>
       </c>
       <c r="T56" s="7">
-        <f>AVERAGE(T2:T21)</f>
+        <f t="shared" si="3"/>
         <v>1.0541500000000001</v>
       </c>
       <c r="U56" s="7">
-        <f>AVERAGE(U2:U21)</f>
+        <f t="shared" si="3"/>
         <v>3.6966666666666668</v>
       </c>
       <c r="V56" s="7">
-        <f>AVERAGE(V2:V21)</f>
+        <f t="shared" si="3"/>
         <v>0.64807142857142863</v>
       </c>
       <c r="W56" s="7">
-        <f>AVERAGE(W2:W21)</f>
+        <f t="shared" si="3"/>
         <v>3.7963636363636364</v>
       </c>
       <c r="X56" s="7">
-        <f>AVERAGE(X2:X21)</f>
+        <f t="shared" si="3"/>
         <v>1.125</v>
       </c>
       <c r="Y56" s="7">
-        <f>AVERAGE(Y2:Y21)</f>
+        <f t="shared" si="3"/>
         <v>2.1233333333333335</v>
       </c>
       <c r="Z56" s="7"/>
@@ -5274,7 +5496,7 @@
         <v>0.43214999999999992</v>
       </c>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M58" t="s">
         <v>52</v>
       </c>
@@ -5322,7 +5544,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N59" t="s">
         <v>101</v>
       </c>
@@ -5367,7 +5589,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N60" t="s">
         <v>102</v>
       </c>
@@ -5416,7 +5638,7 @@
         <v>0.66442857142857137</v>
       </c>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="M62" t="s">
         <v>64</v>
       </c>
@@ -5432,27 +5654,27 @@
         <v>1254</v>
       </c>
       <c r="R62">
-        <f>MAX(R29:R36)</f>
+        <f t="shared" ref="R62:W62" si="4">MAX(R29:R36)</f>
         <v>780</v>
       </c>
       <c r="S62">
-        <f>MAX(S29:S36)</f>
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="T62">
-        <f>MAX(T29:T36)</f>
+        <f t="shared" si="4"/>
         <v>6.62</v>
       </c>
       <c r="U62">
-        <f>MAX(U29:U36)</f>
+        <f t="shared" si="4"/>
         <v>50.8</v>
       </c>
       <c r="V62">
-        <f>MAX(V29:V36)</f>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="W62">
-        <f>MAX(W29:W36)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="Y62">
@@ -5472,7 +5694,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N63" t="s">
         <v>101</v>
       </c>
@@ -5485,27 +5707,27 @@
         <v>218</v>
       </c>
       <c r="R63">
-        <f>MIN(R29:R36)</f>
+        <f t="shared" ref="R63:W63" si="5">MIN(R29:R36)</f>
         <v>134</v>
       </c>
       <c r="S63">
-        <f>MIN(S29:S36)</f>
+        <f t="shared" si="5"/>
         <v>37.4</v>
       </c>
       <c r="T63">
-        <f>MIN(T29:T36)</f>
+        <f t="shared" si="5"/>
         <v>1.68</v>
       </c>
       <c r="U63">
-        <f>MIN(U29:U36)</f>
+        <f t="shared" si="5"/>
         <v>50.8</v>
       </c>
       <c r="V63">
-        <f>MIN(V29:V36)</f>
+        <f t="shared" si="5"/>
         <v>7.6</v>
       </c>
       <c r="W63">
-        <f>MIN(W29:W36)</f>
+        <f t="shared" si="5"/>
         <v>44.2</v>
       </c>
       <c r="Y63">
@@ -5525,7 +5747,7 @@
         <v>2.5099999999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="N64" t="s">
         <v>102</v>
       </c>
@@ -5539,27 +5761,27 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2">
-        <f>AVERAGE(R29:R36)</f>
+        <f t="shared" ref="R64:W64" si="6">AVERAGE(R29:R36)</f>
         <v>288.57142857142856</v>
       </c>
       <c r="S64" s="2">
-        <f>AVERAGE(S29:S36)</f>
+        <f t="shared" si="6"/>
         <v>78.785714285714292</v>
       </c>
       <c r="T64" s="2">
-        <f>AVERAGE(T29:T36)</f>
+        <f t="shared" si="6"/>
         <v>3.544285714285714</v>
       </c>
       <c r="U64" s="2">
-        <f>AVERAGE(U29:U36)</f>
+        <f t="shared" si="6"/>
         <v>50.8</v>
       </c>
       <c r="V64" s="2">
-        <f>AVERAGE(V29:V36)</f>
+        <f t="shared" si="6"/>
         <v>17.166666666666664</v>
       </c>
       <c r="W64" s="2">
-        <f>AVERAGE(W29:W36)</f>
+        <f t="shared" si="6"/>
         <v>56.55</v>
       </c>
       <c r="X64" s="2"/>
@@ -5658,22 +5880,22 @@
         <v>4.25875</v>
       </c>
       <c r="P68" s="8">
-        <f t="shared" ref="P68:AB68" si="0">AVERAGE(P37:P44)</f>
+        <f t="shared" ref="P68:AB68" si="7">AVERAGE(P37:P44)</f>
         <v>11.588749999999999</v>
       </c>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
       <c r="S68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.7562500000000001</v>
       </c>
       <c r="T68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.01875</v>
       </c>
       <c r="U68" s="8"/>
       <c r="V68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.40674999999999994</v>
       </c>
       <c r="W68" s="8"/>
@@ -5681,11 +5903,11 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>1.9162500000000002</v>
       </c>
       <c r="AB68" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0.29249999999999998</v>
       </c>
     </row>
